--- a/03_Materials/finalize_stimuli/pt/pt_translate_Revised.xlsx
+++ b/03_Materials/finalize_stimuli/pt/pt_translate_Revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/pt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA0389-AED8-3149-80D9-736A8FEB799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44120D8B-BDE4-C441-B1A9-0D646E1BF69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-600" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pt_translate" sheetId="1" r:id="rId1"/>
@@ -20830,7 +20830,9 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/03_Materials/finalize_stimuli/pt/pt_translate_Revised.xlsx
+++ b/03_Materials/finalize_stimuli/pt/pt_translate_Revised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/pt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44120D8B-BDE4-C441-B1A9-0D646E1BF69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D96E78-8FD8-1A42-994C-C10A22080EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7174" uniqueCount="6837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7174" uniqueCount="6839">
   <si>
     <t>pt_target</t>
   </si>
@@ -20536,13 +20536,19 @@
   </si>
   <si>
     <t>coletar</t>
+  </si>
+  <si>
+    <t>sibilar</t>
+  </si>
+  <si>
+    <t>soar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -20553,28 +20559,40 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -20603,13 +20621,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20830,8 +20849,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28608,13 +28627,13 @@
         <v>2029</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>200</v>
+        <v>6838</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>201</v>
+      <c r="D298" s="6" t="s">
+        <v>6837</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>2026</v>
